--- a/Resistance Analysis.xlsx
+++ b/Resistance Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blued\Desktop\Self Learn\Logic Guided Machine Learning\Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0467C797-A726-4368-A5FD-8757A39B7C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0C5F3D-B74A-49EA-8431-5CB38332551C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Weight</t>
   </si>
@@ -93,9 +93,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Number Incorrect</t>
-  </si>
-  <si>
     <t>sqrt(add(ARG1, add(add(ARG1, ARG1), ARG1)))</t>
   </si>
   <si>
@@ -190,6 +187,96 @@
   </si>
   <si>
     <t>sqrt(add(add(sqrt(exp(sqrt(ARG0))), ARG1), ARG1))</t>
+  </si>
+  <si>
+    <t>Avg. Truth Error</t>
+  </si>
+  <si>
+    <t>sqrt(mul(add(ARG1, sqrt(ARG1)), sqrt(ARG0)))</t>
+  </si>
+  <si>
+    <t>div(add(ARG0, ARG0), sqrt(ARG0))</t>
+  </si>
+  <si>
+    <t>sqrt(add(add(add(add(ARG0, ARG0), ARG1), ARG1), ARG0))</t>
+  </si>
+  <si>
+    <t>sqrt(sub(add(ARG1, ARG0), sub(sub(inv(ARG1), add(add(ARG1, ARG1), sub(ARG0, ARG0))), ARG0)))</t>
+  </si>
+  <si>
+    <t>sqrt(add(add(ARG1, ARG0), add(add(ARG1, ARG0), add(ARG0, inv(ARG1)))))</t>
+  </si>
+  <si>
+    <t>add(sqrt(ARG1), sqrt(ARG0))</t>
+  </si>
+  <si>
+    <t>sqrt(add(ARG1, div(mul(ARG1, ARG0), sqrt(ARG1))))</t>
+  </si>
+  <si>
+    <t>sqrt(add(ARG0, add(ARG0, add(ARG1, add(ARG0, add(ARG1, ARG1))))))</t>
+  </si>
+  <si>
+    <t>sqrt(add(ARG1, mul(add(ARG0, ARG0), div(add(ARG0, ARG0), ARG0))))</t>
+  </si>
+  <si>
+    <t>add(add(sqrt(ARG0), sqrt(ARG1)), sqrt(ARG0))</t>
+  </si>
+  <si>
+    <t>sqrt(add(ARG1, add(ARG0, add(ARG1, ARG0))))</t>
+  </si>
+  <si>
+    <t>div(mul(ARG0, ARG1), add(ARG0, ARG1))</t>
+  </si>
+  <si>
+    <t>sqrt(add(ARG1, div(sqrt(ARG1), inv(ARG1))))</t>
+  </si>
+  <si>
+    <t>sqrt(mul(sqrt(ARG1), ARG0))</t>
+  </si>
+  <si>
+    <t>sqrt(add(ARG0, div(sqrt(ARG1), inv(ARG0))))</t>
+  </si>
+  <si>
+    <t>sqrt(add(add(add(ARG1, ARG0), add(add(ARG1, ARG1), ARG0)), ARG0))</t>
+  </si>
+  <si>
+    <t>add(sqrt(ARG0), sqrt(ARG1))</t>
+  </si>
+  <si>
+    <t>add(sqrt(ARG1), sqrt(add(add(sub(ARG1, ARG1), ARG1), ARG0)))</t>
+  </si>
+  <si>
+    <t>sqrt(add(mul(add(ARG0, ARG1), sqrt(ARG0)), ARG0))</t>
+  </si>
+  <si>
+    <t>sqrt(mul(mul(ARG0, ARG1), inv(sqrt(add(sqrt(ARG0), add(ARG1, ARG1))))))</t>
+  </si>
+  <si>
+    <t>sqrt(add(mul(inv(ARG1), sqrt(sub(inv(ARG0), sqrt(ARG1)))), mul(sqrt(ARG1), sqrt(div(add(ARG0, ARG1), inv(ARG0))))))</t>
+  </si>
+  <si>
+    <t>add(sqrt(ARG0), sqrt(add(ARG0, add(ARG0, ARG1))))</t>
+  </si>
+  <si>
+    <t>sqrt(add(add(add(add(ARG0, ARG1), add(ARG1, ARG0)), ARG1), ARG0))</t>
+  </si>
+  <si>
+    <t>sqrt(add(ARG0, sqrt(mul(mul(ARG1, ARG1), ARG0))))</t>
+  </si>
+  <si>
+    <t>sqrt(add(ARG1, add(add(ARG1, ARG0), ARG1)))</t>
+  </si>
+  <si>
+    <t>sqrt(mul(sqrt(ARG1), add(ARG0, ARG0)))</t>
+  </si>
+  <si>
+    <t>sqrt(add(add(pow(ARG0, div(ARG0, ARG0)), ARG0), add(add(ARG1, ARG0), ARG1)))</t>
+  </si>
+  <si>
+    <t>sqrt(add(add(ARG1, ARG0), add(add(ARG1, sub(ARG1, ARG1)), ARG0)))</t>
+  </si>
+  <si>
+    <t>sqrt(add(add(add(ARG1, ARG0), ARG0), add(add(ARG1, ARG0), inv(sqrt(mul(ARG1, ARG0))))))</t>
   </si>
 </sst>
 </file>
@@ -537,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -879,6 +966,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -924,7 +1024,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -958,9 +1058,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1101,9 +1202,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>MSE</c:v>
-          </c:tx>
           <c:spPr>
             <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1127,78 +1225,90 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'All Rules'!$A$3:$A$12</c:f>
+              <c:f>'All Rules'!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Rules'!$V$3:$V$12</c:f>
+              <c:f>'All Rules'!$V$3:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5397.8096471491663</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4332.6335179817088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5838.3033817441628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5084.8780102971668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6288.5837393430602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7566.8697677594409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6272.8691019729658</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5271.578556246096</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>4540.470083590516</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>6214.4697243431465</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>6847.8875052171479</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>8329.4281097889925</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>183664.24060442299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>183664.24060442299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>183664.24060442299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>183664.24060442299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,19 +1650,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1560,13 +1663,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Average Truth Error Unweighted</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time Taken</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1583,19 +1681,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1615,45 +1706,21 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Time</c:v>
-          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1662,38 +1729,56 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'All Rules'!$A$3:$A$12</c:f>
+              <c:f>'All Rules'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1701,46 +1786,64 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Rules'!$W$3:$W$12</c:f>
+              <c:f>'All Rules'!$Y$3:$Y$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>895.08743529319509</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>766.8186008453356</c:v>
+                  <c:v>938.46703691621838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635.37560763358988</c:v>
+                  <c:v>939.39595786774612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>676.01423301696741</c:v>
+                  <c:v>938.90332891453204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>879.73947052955521</c:v>
+                  <c:v>920.10815325926399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>940.19202361106704</c:v>
+                  <c:v>926.83021674978261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>566.81474533081018</c:v>
+                  <c:v>927.49953724763941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>534.83806209564159</c:v>
+                  <c:v>943.59673141948588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>404.68380074500982</c:v>
+                  <c:v>924.6553311195687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>601.87709021568241</c:v>
+                  <c:v>897.96948307561593</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>933.75089775899016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>927.49081584868475</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A7C-46A0-9984-3883E0F0641A}"/>
+              <c16:uniqueId val="{00000000-5872-4312-A6B9-4DBB89084E4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1753,8 +1856,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
         <c:axId val="541356600"/>
         <c:axId val="541358840"/>
       </c:barChart>
@@ -1765,6 +1868,31 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1772,10 +1900,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1785,7 +1913,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>weight</a:t>
+                  <a:t>Weight</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1803,132 +1931,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="541358840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="541358840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" baseline="0"/>
-                  <a:t>  taken avg</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1959,7 +1965,129 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541358840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="541358840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>MSE Avg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1994,28 +2122,20 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2667,17 +2787,17 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2685,52 +2805,36 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2738,7 +2842,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2748,14 +2852,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2764,72 +2871,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2846,15 +3012,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2871,17 +3037,17 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2890,17 +3056,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2909,13 +3074,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2927,7 +3092,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2935,16 +3100,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2954,16 +3130,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2972,17 +3162,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2991,16 +3180,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3010,7 +3199,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3020,7 +3209,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3028,7 +3217,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3037,20 +3226,9 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3058,14 +3236,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3078,18 +3255,10 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3101,9 +3270,11 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -3114,7 +3285,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3124,19 +3295,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3146,7 +3319,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3156,7 +3329,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3168,14 +3341,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390072</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3204,23 +3377,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>365124</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>553357</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>501649</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>160338</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>224518</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0811483F-C8C9-4722-9A44-A47A9BB2CB26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081F354A-0ED5-4F26-8F27-B2037746C051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A264E6-2446-49AC-A512-308FFC1D2E06}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3561,26 +3734,26 @@
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="17"/>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="S1" s="16"/>
@@ -3607,7 +3780,7 @@
       <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -3622,7 +3795,7 @@
       <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -3631,7 +3804,7 @@
       <c r="L2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="11" t="s">
@@ -3646,7 +3819,7 @@
       <c r="Q2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="12" t="s">
@@ -3668,7 +3841,7 @@
         <v>14</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>15</v>
@@ -3679,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>8324.5008979457798</v>
@@ -3687,11 +3860,11 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>448.145746469497</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1">
         <v>3736.44195806784</v>
@@ -3702,8 +3875,8 @@
       <c r="I3" s="3">
         <v>1195.3724958896601</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K3" s="1">
         <v>7272.3548410308404</v>
@@ -3711,11 +3884,11 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>647.05638051032997</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" s="1">
         <v>7655.7505298987799</v>
@@ -3726,20 +3899,20 @@
       <c r="Q3" s="3">
         <v>1576.18154883384</v>
       </c>
-      <c r="R3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="26">
+      <c r="R3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="27">
         <v>8.8025905262242892E-6</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="28">
         <v>0</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="29">
         <v>608.68100476264897</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" ref="V3:V12" si="0">SUM(C3, G3,K3,O3,S3)/5</f>
+        <f t="shared" ref="V3:V18" si="0">SUM(C3, G3,K3,O3,S3)/5</f>
         <v>5397.8096471491663</v>
       </c>
       <c r="W3" s="1">
@@ -3747,7 +3920,7 @@
         <v>895.08743529319509</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" ref="X3:X12" si="1">STDEV(C3, G3,K3,O3,S3)</f>
+        <f t="shared" ref="X3:X18" si="1">STDEV(C3, G3,K3,O3,S3)</f>
         <v>3502.6500639350566</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -3760,772 +3933,1287 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8251.3565627379194</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4742.6129100611997</v>
-      </c>
-      <c r="E4" s="3">
-        <v>626.98531603813103</v>
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>3526.3865890004599</v>
+      </c>
+      <c r="D4">
+        <v>231.51152988185399</v>
+      </c>
+      <c r="E4">
+        <v>667.37614393234196</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1">
-        <v>1682.40973456456</v>
+        <v>3527.6229512268901</v>
       </c>
       <c r="H4" s="1">
-        <v>4663.53788404235</v>
+        <v>232.876235005615</v>
       </c>
       <c r="I4" s="3">
-        <v>1791.56312346458</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3736.44195806784</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4726.5307858431797</v>
-      </c>
-      <c r="M4" s="3">
-        <v>423.06134510040198</v>
+        <v>511.85646629333399</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
+        <v>3851.37016521552</v>
+      </c>
+      <c r="L4">
+        <v>244.184188610424</v>
+      </c>
+      <c r="M4">
+        <v>1124.3482899665801</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="O4" s="1">
-        <v>3736.44195806784</v>
+        <v>7244.90597149524</v>
       </c>
       <c r="P4" s="1">
-        <v>4726.5307858431797</v>
+        <v>235.57501778973801</v>
       </c>
       <c r="Q4" s="3">
-        <v>534.78993105888298</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="1">
-        <v>8951.2425677923202</v>
-      </c>
-      <c r="T4" s="1">
-        <v>4730.7059196972396</v>
-      </c>
-      <c r="U4" s="3">
-        <v>457.69328856468201</v>
+        <v>841.59445357322602</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4">
+        <v>3512.8819129704302</v>
+      </c>
+      <c r="T4">
+        <v>228.93682485764199</v>
+      </c>
+      <c r="U4">
+        <v>459.37694644927899</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" ref="V4:V8" si="2">SUM(C4, G4,K4,O4,S4)/5</f>
-        <v>5271.578556246096</v>
+        <f t="shared" ref="V4:V9" si="2">SUM(C4, G4,K4,O4,S4)/5</f>
+        <v>4332.6335179817088</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" ref="W4:W8" si="3">SUM(E4, I4,M4,Q4,U4)/5</f>
-        <v>766.8186008453356</v>
+        <f t="shared" ref="W4:W9" si="3">SUM(E4, I4,M4,Q4,U4)/5</f>
+        <v>720.9104600429522</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" ref="X4:X8" si="4">STDEV(C4, G4,K4,O4,S4)</f>
-        <v>3162.8478380450229</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>20</v>
+        <f t="shared" ref="X4:X9" si="4">STDEV(C4, G4,K4,O4,S4)</f>
+        <v>1634.2440205800526</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Y14" si="5">AVERAGE(D4/A4, H4/A4, L4/A4, P4/A4, T4/A4)</f>
+        <v>938.46703691621838</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" ref="Z4:Z8" si="5">STDEV(E4, I4,M4,Q4,U4)</f>
-        <v>578.19103619627435</v>
+        <f t="shared" ref="Z4:Z9" si="6">STDEV(E4, I4,M4,Q4,U4)</f>
+        <v>270.32202229223259</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="22">
-        <v>3.8163539065429299E-28</v>
-      </c>
-      <c r="D5" s="24">
-        <v>9281.7902437816592</v>
-      </c>
-      <c r="E5" s="23">
-        <v>382.80763053893997</v>
+        <v>0.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>8357.1984608425191</v>
+      </c>
+      <c r="D5">
+        <v>488.31784810125902</v>
+      </c>
+      <c r="E5">
+        <v>417.30861091613701</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1">
-        <v>8236.1109820094898</v>
+        <v>7140.3923045780502</v>
       </c>
       <c r="H5" s="1">
-        <v>9289.7219939134102</v>
+        <v>456.71213553429101</v>
       </c>
       <c r="I5" s="3">
-        <v>1240.0601439476</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2493.6864958657602</v>
-      </c>
-      <c r="L5" s="1">
-        <v>8918.47075268359</v>
-      </c>
-      <c r="M5" s="3">
-        <v>516.94506573676995</v>
+        <v>553.11036658287003</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
+        <v>3736.44195806784</v>
+      </c>
+      <c r="L5">
+        <v>472.653078584318</v>
+      </c>
+      <c r="M5">
+        <v>1140.6504120826701</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="O5" s="1">
-        <v>8236.1109820094898</v>
+        <v>1706.12762249448</v>
       </c>
       <c r="P5" s="1">
-        <v>9289.7219939134102</v>
+        <v>456.54554144337698</v>
       </c>
       <c r="Q5" s="3">
-        <v>461.11704516410799</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="1">
-        <v>3736.44195806784</v>
-      </c>
-      <c r="T5" s="1">
-        <v>9453.0615716863704</v>
-      </c>
-      <c r="U5" s="3">
-        <v>575.94815278053204</v>
+        <v>929.86024999618496</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5">
+        <v>8251.3565627379194</v>
+      </c>
+      <c r="T5">
+        <v>474.26129100612002</v>
+      </c>
+      <c r="U5">
+        <v>551.83894395828202</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="2"/>
-        <v>4540.470083590516</v>
+        <v>5838.3033817441628</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="3"/>
-        <v>635.37560763358988</v>
+        <v>718.55371670722877</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" si="4"/>
-        <v>3632.0509413320929</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>20</v>
+        <v>2973.0368138675162</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="5"/>
+        <v>939.39595786774612</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="5"/>
-        <v>345.45529151729255</v>
+        <f t="shared" si="6"/>
+        <v>303.61571211551944</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6699.5758176760901</v>
-      </c>
-      <c r="D6" s="1">
-        <v>13674.0011951951</v>
-      </c>
-      <c r="E6" s="3">
-        <v>849.77126812934796</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>7655.7505298987799</v>
+      </c>
+      <c r="D6">
+        <v>926.74787444279798</v>
+      </c>
+      <c r="E6">
+        <v>579.27947402000405</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1">
-        <v>7643.45684607978</v>
+        <v>7697.2788086529699</v>
       </c>
       <c r="H6" s="1">
-        <v>14201.942416641499</v>
+        <v>941.14691493948601</v>
       </c>
       <c r="I6" s="3">
-        <v>943.548461437225</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1258.0852388272699</v>
-      </c>
-      <c r="L6" s="1">
-        <v>11466.4541502761</v>
-      </c>
-      <c r="M6" s="3">
-        <v>493.18542695045397</v>
+        <v>701.78265643119801</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6">
+        <v>3560.6234674335401</v>
+      </c>
+      <c r="L6">
+        <v>933.73487929432599</v>
+      </c>
+      <c r="M6">
+        <v>1575.5371885299601</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="O6" s="1">
-        <v>8944.5313717972404</v>
+        <v>4968.43480287697</v>
       </c>
       <c r="P6" s="1">
-        <v>14236.7268233716</v>
+        <v>950.31304618866398</v>
       </c>
       <c r="Q6" s="3">
-        <v>470.43135452270502</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="1">
-        <v>6526.6993473353496</v>
-      </c>
-      <c r="T6" s="1">
-        <v>13768.586645186901</v>
-      </c>
-      <c r="U6" s="3">
-        <v>623.13465404510498</v>
+        <v>1096.42463612556</v>
+      </c>
+      <c r="R6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6">
+        <v>1542.30244262357</v>
+      </c>
+      <c r="T6">
+        <v>942.57392970738601</v>
+      </c>
+      <c r="U6">
+        <v>500.27338528633101</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="2"/>
-        <v>6214.4697243431465</v>
+        <v>5084.8780102971668</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="3"/>
-        <v>676.01423301696741</v>
+        <v>890.65946807861053</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="4"/>
-        <v>2932.3115122934146</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>20</v>
+        <v>2660.8633950263852</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="5"/>
+        <v>938.90332891453204</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="5"/>
-        <v>212.28107119889563</v>
+        <f t="shared" si="6"/>
+        <v>446.21464584545987</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1748.5068418118601</v>
-      </c>
-      <c r="D7" s="1">
-        <v>18263.130163592199</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1613.38345313072</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>7648.2992274347998</v>
+      </c>
+      <c r="D7">
+        <v>1859.27366892128</v>
+      </c>
+      <c r="E7">
+        <v>656.14364719390801</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1">
-        <v>7648.3454372537099</v>
+        <v>5989.4319136171798</v>
       </c>
       <c r="H7" s="1">
-        <v>18579.679008127299</v>
+        <v>1851.1211669526999</v>
       </c>
       <c r="I7" s="3">
-        <v>501.39942622184702</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="1">
-        <v>8251.3565627379194</v>
-      </c>
-      <c r="L7" s="1">
-        <v>18970.451640244799</v>
-      </c>
-      <c r="M7" s="3">
-        <v>550.56042170524597</v>
+        <v>551.52536177635102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>7655.7505298987799</v>
+      </c>
+      <c r="L7">
+        <v>1853.49574888559</v>
+      </c>
+      <c r="M7">
+        <v>913.73787331581104</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="O7" s="1">
-        <v>8941.9706332631195</v>
+        <v>2493.6864958657602</v>
       </c>
       <c r="P7" s="1">
-        <v>18981.455173820301</v>
+        <v>1783.6951989474801</v>
       </c>
       <c r="Q7" s="3">
-        <v>461.63192939758301</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="1">
-        <v>7649.2580510191301</v>
-      </c>
-      <c r="T7" s="1">
-        <v>18580.373790114401</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1271.7221221923801</v>
+        <v>1708.1792008876801</v>
+      </c>
+      <c r="R7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7">
+        <v>7655.7505298987799</v>
+      </c>
+      <c r="T7">
+        <v>1853.49574888559</v>
+      </c>
+      <c r="U7">
+        <v>573.217431545257</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="2"/>
-        <v>6847.8875052171479</v>
+        <v>6288.5837393430602</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="3"/>
-        <v>879.73947052955521</v>
+        <v>880.56070294380129</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" si="4"/>
-        <v>2900.0655313947659</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>20</v>
+        <v>2240.4158753644469</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="5"/>
+        <v>920.10815325926399</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="5"/>
-        <v>528.72437140597594</v>
+        <f t="shared" si="6"/>
+        <v>484.54624647585666</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8269.8123766435692</v>
-      </c>
-      <c r="D8" s="1">
-        <v>23582.940221591201</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2087.44451022148</v>
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>7655.79760304916</v>
+      </c>
+      <c r="D8">
+        <v>2781.8126408487901</v>
+      </c>
+      <c r="E8">
+        <v>612.59411740303005</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1">
-        <v>17580.582351525602</v>
+        <v>8236.1109820094898</v>
       </c>
       <c r="H8" s="1">
-        <v>21811.959372703601</v>
+        <v>2786.9165981740198</v>
       </c>
       <c r="I8" s="3">
-        <v>381.23966312408402</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7648.3454372537099</v>
-      </c>
-      <c r="L8" s="1">
-        <v>23224.598760159199</v>
-      </c>
-      <c r="M8" s="3">
-        <v>514.08295321464504</v>
+        <v>658.57250642776398</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
+        <v>7140.3923045780502</v>
+      </c>
+      <c r="L8">
+        <v>2740.27281320574</v>
+      </c>
+      <c r="M8">
+        <v>647.51955556869495</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="O8" s="1">
-        <v>3736.44195806784</v>
+        <v>6565.9369671510103</v>
       </c>
       <c r="P8" s="1">
-        <v>23632.6539292159</v>
+        <v>2806.5346008441702</v>
       </c>
       <c r="Q8" s="3">
-        <v>420.23371100425697</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" s="1">
-        <v>4411.9584254542397</v>
-      </c>
-      <c r="T8" s="1">
-        <v>23684.199697415701</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1297.95928049087</v>
+        <v>1227.3180351257299</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8">
+        <v>8236.1109820094898</v>
+      </c>
+      <c r="T8">
+        <v>2786.9165981740198</v>
+      </c>
+      <c r="U8">
+        <v>528.72255110740605</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="2"/>
-        <v>8329.4281097889925</v>
+        <v>7566.8697677594409</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="3"/>
-        <v>940.19202361106704</v>
+        <v>734.94535312652511</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="4"/>
-        <v>5533.8362137953527</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>20</v>
+        <v>722.39623191267856</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="5"/>
+        <v>926.83021674978261</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" si="5"/>
-        <v>743.05770404223483</v>
+        <f t="shared" si="6"/>
+        <v>279.9127581614793</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>250</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>183664.24060442299</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>360.97428107261601</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1">
-        <v>183664.24060442299</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>938.57190227508499</v>
-      </c>
-      <c r="J9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="1">
-        <v>183664.24060442299</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>589.32391834258999</v>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>8284.1035562189099</v>
+      </c>
+      <c r="D9">
+        <v>3738.2950539867202</v>
+      </c>
+      <c r="E9">
+        <v>639.05858755111694</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="27">
+        <v>3.8163539065429299E-28</v>
+      </c>
+      <c r="H9" s="28">
+        <v>3712.7160975126599</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1177.9996297359401</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>8284.1035562189099</v>
+      </c>
+      <c r="L9">
+        <v>3738.2950539867202</v>
+      </c>
+      <c r="M9">
+        <v>674.02046155929497</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="O9" s="1">
-        <v>183664.24060442299</v>
+        <v>7140.3923045780502</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>3653.6970842743299</v>
       </c>
       <c r="Q9" s="3">
-        <v>532.15974092483498</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="1">
-        <v>183664.24060442299</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>413.043884038925</v>
+        <v>664.73074221611</v>
+      </c>
+      <c r="R9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9">
+        <v>7655.74609284896</v>
+      </c>
+      <c r="T9">
+        <v>3706.9874551923599</v>
+      </c>
+      <c r="U9">
+        <v>1178.5615563392601</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="0"/>
-        <v>183664.24060442299</v>
+        <f t="shared" si="2"/>
+        <v>6272.8691019729658</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" ref="W9:W12" si="6">SUM(E9, I9,M9,Q9,U9)/5</f>
-        <v>566.81474533081018</v>
+        <f t="shared" si="3"/>
+        <v>866.8741954803445</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3539.2075422801745</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:Y12" si="7">AVERAGE(D9/A9, H9/A9, L9/A9, P9/A9, T9/A9)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>927.49953724763941</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" ref="Z9:Z12" si="8">STDEV(E9, I9,M9,Q9,U9)</f>
-        <v>226.89578579593527</v>
+        <f t="shared" si="6"/>
+        <v>284.5621796554193</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>183664.24060442299</v>
+        <v>8251.3565627379194</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>742.47861433029095</v>
+        <v>4742.6129100611997</v>
+      </c>
+      <c r="E10" s="1">
+        <v>626.98531603813103</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1">
-        <v>183664.24060442299</v>
+        <v>1682.40973456456</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>4663.53788404235</v>
       </c>
       <c r="I10" s="3">
-        <v>875.65838289260796</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
+        <v>1791.56312346458</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="K10" s="1">
-        <v>183664.24060442299</v>
+        <v>3736.44195806784</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>322.11013412475501</v>
+        <v>4726.5307858431797</v>
+      </c>
+      <c r="M10" s="1">
+        <v>423.06134510040198</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="O10" s="1">
-        <v>183664.24060442299</v>
+        <v>3736.44195806784</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>4726.5307858431797</v>
       </c>
       <c r="Q10" s="3">
-        <v>451.058527946472</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>28</v>
+        <v>534.78993105888298</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="S10" s="1">
-        <v>183664.24060442299</v>
+        <v>8951.2425677923202</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>4730.7059196972396</v>
       </c>
       <c r="U10" s="3">
-        <v>282.88465118408197</v>
+        <v>457.69328856468201</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="0"/>
-        <v>183664.24060442299</v>
+        <f t="shared" ref="V10:V14" si="7">SUM(C10, G10,K10,O10,S10)/5</f>
+        <v>5271.578556246096</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="6"/>
-        <v>534.83806209564159</v>
+        <f t="shared" ref="W10:W14" si="8">SUM(E10, I10,M10,Q10,U10)/5</f>
+        <v>766.8186008453356</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="X10:X14" si="9">STDEV(C10, G10,K10,O10,S10)</f>
+        <v>3162.8478380450229</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>AVERAGE(D10/A10, H10/A10, L10/A10, P10/A10, T10/A10)</f>
+        <v>943.59673141948588</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="8"/>
-        <v>262.21450806136977</v>
+        <f t="shared" ref="Z10:Z14" si="10">STDEV(E10, I10,M10,Q10,U10)</f>
+        <v>578.19103619627435</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>750</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="23">
+        <v>3.8163539065429299E-28</v>
+      </c>
+      <c r="D11" s="25">
+        <v>9281.7902437816592</v>
+      </c>
+      <c r="E11" s="24">
+        <v>382.80763053893997</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8236.1109820094898</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9289.7219939134102</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1240.0601439476</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2493.6864958657602</v>
+      </c>
+      <c r="L11" s="1">
+        <v>8918.47075268359</v>
+      </c>
+      <c r="M11" s="1">
+        <v>516.94506573676995</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="1">
+        <v>8236.1109820094898</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9289.7219939134102</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>461.11704516410799</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3736.44195806784</v>
+      </c>
+      <c r="T11" s="1">
+        <v>9453.0615716863704</v>
+      </c>
+      <c r="U11" s="3">
+        <v>575.94815278053204</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="7"/>
+        <v>4540.470083590516</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="8"/>
+        <v>635.37560763358988</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="9"/>
+        <v>3632.0509413320929</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="5"/>
+        <v>924.6553311195687</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="10"/>
+        <v>345.45529151729255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6699.5758176760901</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13674.0011951951</v>
+      </c>
+      <c r="E12" s="1">
+        <v>849.77126812934796</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7643.45684607978</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14201.942416641499</v>
+      </c>
+      <c r="I12" s="3">
+        <v>943.548461437225</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1258.0852388272699</v>
+      </c>
+      <c r="L12" s="1">
+        <v>11466.4541502761</v>
+      </c>
+      <c r="M12" s="1">
+        <v>493.18542695045397</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8944.5313717972404</v>
+      </c>
+      <c r="P12" s="1">
+        <v>14236.7268233716</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>470.43135452270502</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="1">
+        <v>6526.6993473353496</v>
+      </c>
+      <c r="T12" s="1">
+        <v>13768.586645186901</v>
+      </c>
+      <c r="U12" s="3">
+        <v>623.13465404510498</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="7"/>
+        <v>6214.4697243431465</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="8"/>
+        <v>676.01423301696741</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="9"/>
+        <v>2932.3115122934146</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="5"/>
+        <v>897.96948307561593</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="10"/>
+        <v>212.28107119889563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1748.5068418118601</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18263.130163592199</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1613.38345313072</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7648.3454372537099</v>
+      </c>
+      <c r="H13" s="1">
+        <v>18579.679008127299</v>
+      </c>
+      <c r="I13" s="3">
+        <v>501.39942622184702</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8251.3565627379194</v>
+      </c>
+      <c r="L13" s="1">
+        <v>18970.451640244799</v>
+      </c>
+      <c r="M13" s="1">
+        <v>550.56042170524597</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="1">
+        <v>8941.9706332631195</v>
+      </c>
+      <c r="P13" s="1">
+        <v>18981.455173820301</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>461.63192939758301</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="1">
+        <v>7649.2580510191301</v>
+      </c>
+      <c r="T13" s="1">
+        <v>18580.373790114401</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1271.7221221923801</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="7"/>
+        <v>6847.8875052171479</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="8"/>
+        <v>879.73947052955521</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="9"/>
+        <v>2900.0655313947659</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="5"/>
+        <v>933.75089775899016</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="10"/>
+        <v>528.72437140597594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8269.8123766435692</v>
+      </c>
+      <c r="D14" s="1">
+        <v>23582.940221591201</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2087.44451022148</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>17580.582351525602</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21811.959372703601</v>
+      </c>
+      <c r="I14" s="3">
+        <v>381.23966312408402</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7648.3454372537099</v>
+      </c>
+      <c r="L14" s="1">
+        <v>23224.598760159199</v>
+      </c>
+      <c r="M14" s="1">
+        <v>514.08295321464504</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3736.44195806784</v>
+      </c>
+      <c r="P14" s="1">
+        <v>23632.6539292159</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>420.23371100425697</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4411.9584254542397</v>
+      </c>
+      <c r="T14" s="1">
+        <v>23684.199697415701</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1297.95928049087</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="7"/>
+        <v>8329.4281097889925</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="8"/>
+        <v>940.19202361106704</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="9"/>
+        <v>5533.8362137953527</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="5"/>
+        <v>927.49081584868475</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="10"/>
+        <v>743.05770404223483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>250</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C15" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
-        <v>484.36029791831902</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E15" s="1">
+        <v>360.97428107261601</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G15" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <v>481.04805517196598</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="I15" s="3">
+        <v>938.57190227508499</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K15" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <v>333.80643010139403</v>
-      </c>
-      <c r="N11" s="2" t="s">
+      <c r="M15" s="1">
+        <v>589.32391834258999</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O15" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P15" s="1">
         <v>0</v>
       </c>
-      <c r="Q11" s="3">
-        <v>274.55691003799399</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="Q15" s="3">
+        <v>532.15974092483498</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S15" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T15" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="3">
-        <v>449.64731049537602</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="U15" s="3">
+        <v>413.043884038925</v>
+      </c>
+      <c r="V15" s="2">
         <f t="shared" si="0"/>
         <v>183664.24060442299</v>
       </c>
-      <c r="W11" s="1">
-        <f t="shared" si="6"/>
-        <v>404.68380074500982</v>
-      </c>
-      <c r="X11" s="1">
+      <c r="W15" s="1">
+        <f t="shared" ref="W15:W18" si="11">SUM(E15, I15,M15,Q15,U15)/5</f>
+        <v>566.81474533081018</v>
+      </c>
+      <c r="X15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="1">
-        <f t="shared" si="7"/>
+      <c r="Y15" s="1">
+        <f t="shared" ref="Y15:Y18" si="12">AVERAGE(D15/A15, H15/A15, L15/A15, P15/A15, T15/A15)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="8"/>
-        <v>95.076508822490652</v>
+      <c r="Z15" s="3">
+        <f t="shared" ref="Z15:Z18" si="13">STDEV(E15, I15,M15,Q15,U15)</f>
+        <v>226.89578579593527</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
-        <v>1000</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>500</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="6">
-        <v>649.56057882308903</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="E16" s="1">
+        <v>742.47861433029095</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="6">
-        <v>593.86176657676697</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="I16" s="3">
+        <v>875.65838289260796</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="6">
-        <v>955.55528855323701</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="M16" s="1">
+        <v>322.11013412475501</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P16" s="1">
         <v>0</v>
       </c>
-      <c r="Q12" s="6">
-        <v>421.23273062705903</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="Q16" s="3">
+        <v>451.058527946472</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="1">
         <v>183664.24060442299</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T16" s="1">
         <v>0</v>
       </c>
-      <c r="U12" s="6">
-        <v>389.17508649825999</v>
-      </c>
-      <c r="V12" s="4">
+      <c r="U16" s="3">
+        <v>282.88465118408197</v>
+      </c>
+      <c r="V16" s="2">
         <f t="shared" si="0"/>
         <v>183664.24060442299</v>
       </c>
-      <c r="W12" s="5">
-        <f t="shared" si="6"/>
-        <v>601.87709021568241</v>
-      </c>
-      <c r="X12" s="5">
+      <c r="W16" s="1">
+        <f t="shared" si="11"/>
+        <v>534.83806209564159</v>
+      </c>
+      <c r="X16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y16" s="1">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="6">
-        <f t="shared" si="8"/>
+      <c r="Z16" s="3">
+        <f t="shared" si="13"/>
+        <v>262.21450806136977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>750</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>484.36029791831902</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>481.04805517196598</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>333.80643010139403</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="1">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>274.55691003799399</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="1">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>449.64731049537602</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="0"/>
+        <v>183664.24060442299</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="11"/>
+        <v>404.68380074500982</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="13"/>
+        <v>95.076508822490652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>649.56057882308903</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>593.86176657676697</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="5">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>955.55528855323701</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="5">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>421.23273062705903</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="5">
+        <v>183664.24060442299</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <v>389.17508649825999</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="0"/>
+        <v>183664.24060442299</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="11"/>
+        <v>601.87709021568241</v>
+      </c>
+      <c r="X18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="6">
+        <f t="shared" si="13"/>
         <v>226.55063204209873</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="F14" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="H14">
+      <c r="H20">
         <v>138.269517898559</v>
       </c>
     </row>
